--- a/src/template/DM-2025 - Template.xlsx
+++ b/src/template/DM-2025 - Template.xlsx
@@ -8,12 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Guilherme\@ - Desenvolvimento\GitHub\DownSkilling-Python-MenuColetaDados\src\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53894CD4-99C7-4AC2-8781-666A9BE5B05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D6945F-9213-4390-BFDF-272E597132EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{084521F4-8656-40AC-83DE-843A753F2836}"/>
   </bookViews>
   <sheets>
-    <sheet name="NOV" sheetId="34" r:id="rId1"/>
+    <sheet name="JAN" sheetId="42" r:id="rId1"/>
+    <sheet name="FEV" sheetId="43" r:id="rId2"/>
+    <sheet name="MAR" sheetId="44" r:id="rId3"/>
+    <sheet name="ABR" sheetId="45" r:id="rId4"/>
+    <sheet name="MAI" sheetId="38" r:id="rId5"/>
+    <sheet name="JUN" sheetId="39" r:id="rId6"/>
+    <sheet name="JUL" sheetId="40" r:id="rId7"/>
+    <sheet name="AGO" sheetId="41" r:id="rId8"/>
+    <sheet name="SET" sheetId="36" r:id="rId9"/>
+    <sheet name="OUT" sheetId="37" r:id="rId10"/>
+    <sheet name="NOV" sheetId="34" r:id="rId11"/>
+    <sheet name="DEZ" sheetId="35" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="24">
   <si>
     <t>N° da NF</t>
   </si>
@@ -64,6 +75,39 @@
   </si>
   <si>
     <t>Tipo</t>
+  </si>
+  <si>
+    <t>Gasto Total - 01/2025</t>
+  </si>
+  <si>
+    <t>Gasto Total - 02/2025</t>
+  </si>
+  <si>
+    <t>Gasto Total - 03/2025</t>
+  </si>
+  <si>
+    <t>Gasto Total - 04/2025</t>
+  </si>
+  <si>
+    <t>Gasto Total - 05/2025</t>
+  </si>
+  <si>
+    <t>Gasto Total - 06/2025</t>
+  </si>
+  <si>
+    <t>Gasto Total - 07/2025</t>
+  </si>
+  <si>
+    <t>Gasto Total - 08/2025</t>
+  </si>
+  <si>
+    <t>Gasto Total - 09/2025</t>
+  </si>
+  <si>
+    <t>Gasto Total - 10/2025</t>
+  </si>
+  <si>
+    <t>Gasto Total - 12/2025</t>
   </si>
 </sst>
 </file>
@@ -362,10 +406,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,7 +429,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,15 +748,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94CFD21-4D34-4B87-B8AB-83CE778DC224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134F807C-7CD6-4DC3-B765-868868751764}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
-      <selection sqref="A1:H1"/>
-      <selection pane="topRight" sqref="A1:H1"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -734,30 +778,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="A1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="26"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -785,18 +829,340 @@
         <v>8</v>
       </c>
       <c r="K2" s="10"/>
-      <c r="L2" s="27">
+      <c r="L2" s="26">
         <f>SUM(E3:E200)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="28"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="30"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <f>SUM(G3:G200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(G3:H200)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18">
+        <f>SUM(I3:I200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <f>SUM(J3:J200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="22" spans="12:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B64D77-BD4F-4A82-9DC9-84DC00D97A07}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="26">
+        <f>SUM(E3:E200)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <f>SUM(G3:G200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(G3:H200)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18">
+        <f>SUM(I3:I200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <f>SUM(J3:J200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="22" spans="12:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94CFD21-4D34-4B87-B8AB-83CE778DC224}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="26">
+        <f>SUM(E3:E200)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L4" s="11" t="s">
@@ -862,4 +1228,1453 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC637F4-C537-432A-9E79-5B37C403305A}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="26">
+        <f>SUM(E3:E200)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <f>SUM(G3:G200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(G3:H200)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18">
+        <f>SUM(I3:I200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <f>SUM(J3:J200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="22" spans="12:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755569B2-48A6-45F4-8EFA-A2193DC07AD5}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="26">
+        <f>SUM(E3:E200)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <f>SUM(G3:G200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(G3:H200)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18">
+        <f>SUM(I3:I200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <f>SUM(J3:J200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="22" spans="12:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8433ED24-B25F-4327-AB59-AD3EEA4F9D7A}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="26">
+        <f>SUM(E3:E200)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <f>SUM(G3:G200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(G3:H200)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18">
+        <f>SUM(I3:I200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <f>SUM(J3:J200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="22" spans="12:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E9AEF0-481C-4C23-A0AF-36777CB4F637}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="26">
+        <f>SUM(E3:E200)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <f>SUM(G3:G200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(G3:H200)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18">
+        <f>SUM(I3:I200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <f>SUM(J3:J200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="22" spans="12:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687ED05-8B4C-43E2-AE49-F37105B1FCAD}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="26">
+        <f>SUM(E3:E200)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <f>SUM(G3:G200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(G3:H200)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18">
+        <f>SUM(I3:I200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <f>SUM(J3:J200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="22" spans="12:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EFA5BA-D77B-4F72-95D5-704FB281C4D0}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="26">
+        <f>SUM(E3:E200)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <f>SUM(G3:G200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(G3:H200)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18">
+        <f>SUM(I3:I200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <f>SUM(J3:J200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="22" spans="12:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE53DA-7A6A-4944-BEE6-01C0DA4B70F5}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="26">
+        <f>SUM(E3:E200)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <f>SUM(G3:G200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(G3:H200)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18">
+        <f>SUM(I3:I200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <f>SUM(J3:J200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="22" spans="12:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEF626D-CAE3-41A3-80DC-2D8EB8531702}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="26">
+        <f>SUM(E3:E200)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <f>SUM(G3:G200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(G3:H200)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18">
+        <f>SUM(I3:I200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <f>SUM(J3:J200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="22" spans="12:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1701C7BC-A7BC-4744-9004-4DBA9152B1F8}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <selection sqref="A1:J1"/>
+      <selection pane="topRight" sqref="A1:J1"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12" style="22" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="26">
+        <f>SUM(E3:E200)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <f>SUM(G3:G200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="18">
+        <f>SUM(G3:H200)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18">
+        <f>SUM(I3:I200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
+        <f>SUM(J3:J200)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="22" spans="12:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>